--- a/tests/sample_files/entity_dictionaries/bar.xlsx
+++ b/tests/sample_files/entity_dictionaries/bar.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="Entities" sheetId="1" r:id="rId2"/>
+    <sheet name="ent__bar_patterns" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>authority</t>
   </si>
@@ -31,87 +30,7 @@
     <t>pattern</t>
   </si>
   <si>
-    <t>The pattern to match.</t>
-  </si>
-  <si>
-    <t>FIELD</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Whether or not the patters should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
-  </si>
-  <si>
-    <t>nc.gov</t>
-  </si>
-  <si>
-    <t>EXAMPLE_01</t>
-  </si>
-  <si>
-    <t>EXAMPLE_02</t>
-  </si>
-  <si>
-    <t>Government of North Carolina</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>The string with which to "tag" the pattern.</t>
-  </si>
-  <si>
-    <t>United States Department of {abc} and {abc}</t>
-  </si>
-  <si>
-    <t>Use only "TRUE" or "FALSE".</t>
-  </si>
-  <si>
-    <t>Use natural language patterns and avoid punctuation marks.
-Make all attempts to avoid regular expressions as these should be placed in stand-alone text files and vigorosuly tested beforehand.
-For wildcard matches use one or more of the following patterns:
-- {abc} to match only letters,
- - {123} to match only numbers,
- - {***} to match an alphanumeric pattern.</t>
-  </si>
-  <si>
-    <t>north_carolina_government</t>
-  </si>
-  <si>
-    <t>FEDERAL.department_name</t>
-  </si>
-  <si>
-    <t>A unique identifier of the institution associated with determining the pattern and label.</t>
-  </si>
-  <si>
-    <t>Use only letters, periods, and underscores.</t>
-  </si>
-  <si>
-    <t>unc.edu</t>
-  </si>
-  <si>
-    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case-sensitive) will be usable by the TOMES software.</t>
-  </si>
-  <si>
-    <t>The data dictionary below describes the columns in the "Entities" worksheet.</t>
-  </si>
-  <si>
-    <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
-  </si>
-  <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>Aim for short, single sentence descriptions.</t>
-  </si>
-  <si>
-    <t>A reference to the state government of North Carolina.</t>
-  </si>
-  <si>
-    <t>A simple definition of the entity that the pattern is meant to capture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
   </si>
   <si>
     <t>case_sensitive</t>
@@ -142,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,27 +77,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,24 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,146 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,10 +401,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -661,44 +415,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
